--- a/GWAS_genes/GWAS_1.xlsx
+++ b/GWAS_genes/GWAS_1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programs\IPFdata\GWAS_genes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\IPFdata\GWAS_genes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB271FA2-D965-4B0B-9E33-C82B3A8C7F8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="GWAS" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="385">
   <si>
     <t>MUC5B</t>
   </si>
@@ -56,14 +55,6 @@
     <t>p-value</t>
   </si>
   <si>
-    <t>OR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95%CI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nearbyGene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1144,33 +1135,6 @@
     <t>10.1183/23120541.00071-2019</t>
   </si>
   <si>
-    <t>10.1183/23120541.00071-2020</t>
-  </si>
-  <si>
-    <t>10.1183/23120541.00071-2021</t>
-  </si>
-  <si>
-    <t>10.1183/23120541.00071-2022</t>
-  </si>
-  <si>
-    <t>10.1183/23120541.00071-2023</t>
-  </si>
-  <si>
-    <t>10.1183/23120541.00071-2024</t>
-  </si>
-  <si>
-    <t>10.1183/23120541.00071-2025</t>
-  </si>
-  <si>
-    <t>10.1183/23120541.00071-2026</t>
-  </si>
-  <si>
-    <t>10.1183/23120541.00071-2027</t>
-  </si>
-  <si>
-    <t>10.1183/23120541.00071-2028</t>
-  </si>
-  <si>
     <t>0.98 [0.01, 95.0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1280,27 +1244,33 @@
   </si>
   <si>
     <t>DKC1</t>
+  </si>
+  <si>
+    <t>Sporadic</t>
+  </si>
+  <si>
+    <t>WES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="###0.000;###0.000"/>
-    <numFmt numFmtId="177" formatCode="###0;###0"/>
+    <numFmt numFmtId="164" formatCode="###0.000;###0.000"/>
+    <numFmt numFmtId="165" formatCode="###0;###0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1396,11 +1366,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1410,7 +1380,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1427,7 +1397,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1704,34 +1674,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="8.6640625" style="1"/>
-    <col min="9" max="9" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.7109375" style="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1739,10 +1709,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4" t="s">
@@ -1752,31 +1722,41 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q1" s="4"/>
       <c r="R1" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -1784,16 +1764,16 @@
         <v>44902386</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="4">
         <v>5.2999999999999999E-2</v>
@@ -1802,10 +1782,10 @@
         <v>2</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -1814,10 +1794,10 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="4">
         <v>7</v>
       </c>
@@ -1825,16 +1805,16 @@
         <v>1909479</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4">
         <v>0.42</v>
@@ -1843,10 +1823,10 @@
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -1855,10 +1835,10 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="4">
         <v>8</v>
       </c>
@@ -1866,16 +1846,16 @@
         <v>120934126</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" s="4">
         <v>0.42799999999999999</v>
@@ -1884,10 +1864,10 @@
         <v>2</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -1896,10 +1876,10 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="4">
         <v>10</v>
       </c>
@@ -1907,16 +1887,16 @@
         <v>93271016</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" s="4">
         <v>3.0000000000000001E-3</v>
@@ -1925,10 +1905,10 @@
         <v>2</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -1937,10 +1917,10 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="4">
         <v>6</v>
       </c>
@@ -1948,16 +1928,16 @@
         <v>7563232</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" s="4">
         <v>0.46300000000000002</v>
@@ -1966,10 +1946,10 @@
         <v>2</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1978,10 +1958,10 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="4">
         <v>11</v>
       </c>
@@ -1995,10 +1975,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" s="4">
         <v>0.14299999999999999</v>
@@ -2007,10 +1987,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -2019,10 +1999,10 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="4">
         <v>15</v>
       </c>
@@ -2030,16 +2010,16 @@
         <v>86300198</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" s="4">
         <v>0.247</v>
@@ -2048,10 +2028,10 @@
         <v>2</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -2060,10 +2040,10 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="4">
         <v>3</v>
       </c>
@@ -2071,22 +2051,22 @@
         <v>169518455</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="4">
         <v>0.27100000000000002</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -2098,10 +2078,10 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="4">
         <v>4</v>
       </c>
@@ -2109,22 +2089,22 @@
         <v>89811195</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" s="4">
         <v>0.221</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2136,10 +2116,10 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -2147,14 +2127,14 @@
         <v>1286516</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="4">
         <v>0.48799999999999999</v>
@@ -2172,10 +2152,10 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="4">
         <v>6</v>
       </c>
@@ -2183,14 +2163,14 @@
         <v>7563232</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" s="4">
         <v>0.46300000000000002</v>
@@ -2208,10 +2188,10 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="4">
         <v>6</v>
       </c>
@@ -2219,20 +2199,20 @@
         <v>31864547</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13" s="4">
         <v>0.318</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -2244,10 +2224,10 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="4">
         <v>7</v>
       </c>
@@ -2255,14 +2235,14 @@
         <v>99593346</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G14" s="4">
         <v>0.39800000000000002</v>
@@ -2280,10 +2260,10 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -2291,20 +2271,20 @@
         <v>105672842</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" s="4">
         <v>0.495</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -2316,10 +2296,10 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -2327,14 +2307,14 @@
         <v>1093945</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" s="4">
         <v>0.44900000000000001</v>
@@ -2352,10 +2332,10 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="4">
         <v>11</v>
       </c>
@@ -2363,14 +2343,14 @@
         <v>1241221</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G17" s="4">
         <v>0.14299999999999999</v>
@@ -2388,10 +2368,10 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="4">
         <v>11</v>
       </c>
@@ -2399,14 +2379,14 @@
         <v>1312706</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G18" s="4">
         <v>0.19800000000000001</v>
@@ -2424,10 +2404,10 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="4">
         <v>11</v>
       </c>
@@ -2435,14 +2415,14 @@
         <v>1325829</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G19" s="4">
         <v>0.14699999999999999</v>
@@ -2460,10 +2440,10 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="4">
         <v>13</v>
       </c>
@@ -2471,20 +2451,20 @@
         <v>113536627</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G20" s="4">
         <v>0.221</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -2496,10 +2476,10 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="4">
         <v>14</v>
       </c>
@@ -2507,14 +2487,14 @@
         <v>48040375</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G21" s="4">
         <v>0.11700000000000001</v>
@@ -2532,10 +2512,10 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="4">
         <v>15</v>
       </c>
@@ -2543,14 +2523,14 @@
         <v>40717302</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G22" s="4">
         <v>0.47699999999999998</v>
@@ -2568,10 +2548,10 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="4">
         <v>17</v>
       </c>
@@ -2579,14 +2559,14 @@
         <v>44056767</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G23" s="4">
         <v>0.22500000000000001</v>
@@ -2604,10 +2584,10 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -2615,14 +2595,14 @@
         <v>4717672</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G24" s="4">
         <v>0.30599999999999999</v>
@@ -2640,10 +2620,10 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="5">
         <v>1</v>
       </c>
@@ -2651,16 +2631,16 @@
         <v>158266377</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="G25" s="4">
         <v>8.9999999999999993E-3</v>
@@ -2669,31 +2649,31 @@
         <v>1</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="L25" s="4">
         <v>0.16900000000000001</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -2701,16 +2681,16 @@
         <v>196625450</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="G26" s="4">
         <v>2.1000000000000001E-2</v>
@@ -2719,31 +2699,31 @@
         <v>1</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="5">
         <v>2</v>
       </c>
@@ -2751,16 +2731,16 @@
         <v>31786481</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="G27" s="4">
         <v>4.1000000000000002E-2</v>
@@ -2769,31 +2749,31 @@
         <v>1</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L27" s="3">
         <v>0.74399999999999999</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O27" s="9"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="5">
         <v>2</v>
       </c>
@@ -2801,16 +2781,16 @@
         <v>32853582</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G28" s="4">
         <v>5.2999999999999999E-2</v>
@@ -2819,31 +2799,31 @@
         <v>1</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L28" s="3">
         <v>0.39400000000000002</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O28" s="9"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="5">
         <v>2</v>
       </c>
@@ -2851,16 +2831,16 @@
         <v>136787476</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G29" s="4">
         <v>8.5999999999999993E-2</v>
@@ -2869,31 +2849,31 @@
         <v>1</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L29" s="3">
         <v>0.17799999999999999</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O29" s="9"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="5">
         <v>2</v>
       </c>
@@ -2901,16 +2881,16 @@
         <v>136817252</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="G30" s="4">
         <v>3.9E-2</v>
@@ -2919,31 +2899,31 @@
         <v>1</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="5">
         <v>2</v>
       </c>
@@ -2951,16 +2931,16 @@
         <v>138817685</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G31" s="4">
         <v>2E-3</v>
@@ -2969,31 +2949,31 @@
         <v>1</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="5">
         <v>4</v>
       </c>
@@ -3001,16 +2981,16 @@
         <v>77154761</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G32" s="4">
         <v>3.9E-2</v>
@@ -3019,19 +2999,19 @@
         <v>1</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L32" s="2">
         <v>0.21</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N32" s="3">
         <v>3.4000000000000002E-2</v>
@@ -3040,10 +3020,10 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="5">
         <v>4</v>
       </c>
@@ -3051,16 +3031,16 @@
         <v>90576890</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G33" s="4">
         <v>0.123</v>
@@ -3069,31 +3049,31 @@
         <v>1</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L33" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O33" s="9"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -3101,16 +3081,16 @@
         <v>91027241</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G34" s="4">
         <v>2.1000000000000001E-2</v>
@@ -3119,19 +3099,19 @@
         <v>1</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L34" s="3">
         <v>0.95099999999999996</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N34" s="3">
         <v>0.80600000000000005</v>
@@ -3140,10 +3120,10 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="5">
         <v>5</v>
       </c>
@@ -3151,16 +3131,16 @@
         <v>60270618</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="G35" s="4">
         <v>2.5000000000000001E-2</v>
@@ -3169,31 +3149,31 @@
         <v>1</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="5">
         <v>5</v>
       </c>
@@ -3201,16 +3181,16 @@
         <v>166605924</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G36" s="4">
         <v>1E-3</v>
@@ -3219,31 +3199,31 @@
         <v>1</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="5">
         <v>6</v>
       </c>
@@ -3251,16 +3231,16 @@
         <v>7563232</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G37" s="4">
         <v>0.46300000000000002</v>
@@ -3269,31 +3249,31 @@
         <v>2</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K37" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="M37" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="5">
         <v>6</v>
       </c>
@@ -3301,16 +3281,16 @@
         <v>32269487</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38" s="4">
         <v>9.9000000000000005E-2</v>
@@ -3319,31 +3299,31 @@
         <v>1</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="5">
         <v>6</v>
       </c>
@@ -3351,16 +3331,16 @@
         <v>66932852</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G39" s="4">
         <v>0.16400000000000001</v>
@@ -3369,19 +3349,19 @@
         <v>1</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L39" s="4">
         <v>0.496</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N39" s="4">
         <v>1.7000000000000001E-2</v>
@@ -3390,10 +3370,10 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="5">
         <v>6</v>
       </c>
@@ -3401,16 +3381,16 @@
         <v>112115355</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G40" s="4">
         <v>9.4E-2</v>
@@ -3419,19 +3399,19 @@
         <v>1</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L40" s="4">
         <v>0.183</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N40" s="4">
         <v>0.34200000000000003</v>
@@ -3440,10 +3420,10 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="5">
         <v>8</v>
       </c>
@@ -3451,16 +3431,16 @@
         <v>121446432</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G41" s="4">
         <v>3.0000000000000001E-3</v>
@@ -3469,31 +3449,31 @@
         <v>1</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="L41" s="4">
         <v>0.247</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="5">
         <v>9</v>
       </c>
@@ -3501,16 +3481,16 @@
         <v>24010289</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G42" s="4">
         <v>2E-3</v>
@@ -3519,19 +3499,19 @@
         <v>1</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L42" s="4">
         <v>0.122</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N42" s="4">
         <v>2E-3</v>
@@ -3540,10 +3520,10 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="5">
         <v>9</v>
       </c>
@@ -3551,16 +3531,16 @@
         <v>27446846</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G43" s="4">
         <v>1.7999999999999999E-2</v>
@@ -3569,19 +3549,19 @@
         <v>1</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L43" s="4">
         <v>0.34899999999999998</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N43" s="4">
         <v>0.22700000000000001</v>
@@ -3590,10 +3570,10 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="5">
         <v>9</v>
       </c>
@@ -3601,16 +3581,16 @@
         <v>27499407</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G44" s="4">
         <v>2.3E-2</v>
@@ -3619,19 +3599,19 @@
         <v>1</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L44" s="4">
         <v>0.997</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N44" s="4">
         <v>0.54400000000000004</v>
@@ -3640,10 +3620,10 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="5">
         <v>10</v>
       </c>
@@ -3651,16 +3631,16 @@
         <v>65359362</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="G45" s="4">
         <v>2E-3</v>
@@ -3669,31 +3649,31 @@
         <v>1</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O45" s="4"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="5">
         <v>10</v>
       </c>
@@ -3701,16 +3681,16 @@
         <v>77228877</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G46" s="4">
         <v>2E-3</v>
@@ -3719,31 +3699,31 @@
         <v>1</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O46" s="4"/>
       <c r="P46" s="8"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="5">
         <v>10</v>
       </c>
@@ -3751,16 +3731,16 @@
         <v>107751048</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G47" s="4">
         <v>3.0000000000000001E-3</v>
@@ -3769,31 +3749,31 @@
         <v>1</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O47" s="4"/>
       <c r="P47" s="8"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="5">
         <v>11</v>
       </c>
@@ -3807,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G48" s="4">
         <v>0.14299999999999999</v>
@@ -3819,31 +3799,31 @@
         <v>2</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K48" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="M48" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="L48" s="4" t="s">
+      <c r="N48" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="O48" s="4"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="5">
         <v>11</v>
       </c>
@@ -3851,16 +3831,16 @@
         <v>43823527</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="G49" s="4">
         <v>0.27800000000000002</v>
@@ -3869,31 +3849,31 @@
         <v>1</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O49" s="4"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="5">
         <v>12</v>
       </c>
@@ -3901,16 +3881,16 @@
         <v>38910545</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G50" s="4">
         <v>1.0999999999999999E-2</v>
@@ -3919,31 +3899,31 @@
         <v>1</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O50" s="4"/>
       <c r="P50" s="8"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="5">
         <v>12</v>
       </c>
@@ -3951,16 +3931,16 @@
         <v>38945784</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G51" s="4">
         <v>2.3E-2</v>
@@ -3969,31 +3949,31 @@
         <v>1</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O51" s="4"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="5">
         <v>13</v>
       </c>
@@ -4001,16 +3981,16 @@
         <v>24044887</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G52" s="4">
         <v>1E-3</v>
@@ -4019,31 +3999,31 @@
         <v>1</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="L52" s="4">
         <v>0.99299999999999999</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O52" s="4"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="5">
         <v>13</v>
       </c>
@@ -4051,16 +4031,16 @@
         <v>97652906</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G53" s="4">
         <v>1E-3</v>
@@ -4069,19 +4049,19 @@
         <v>1</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="L53" s="4">
         <v>0.72799999999999998</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N53" s="4">
         <v>2E-3</v>
@@ -4090,10 +4070,10 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="5">
         <v>14</v>
       </c>
@@ -4101,16 +4081,16 @@
         <v>55385305</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G54" s="4">
         <v>8.8999999999999996E-2</v>
@@ -4119,31 +4099,31 @@
         <v>1</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L54" s="4">
         <v>0.63</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O54" s="4"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="5">
         <v>15</v>
       </c>
@@ -4151,16 +4131,16 @@
         <v>86300198</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G55" s="4">
         <v>0.247</v>
@@ -4169,31 +4149,31 @@
         <v>2</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K55" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="M55" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="N55" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="N55" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="O55" s="4"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="5">
         <v>16</v>
       </c>
@@ -4201,16 +4181,16 @@
         <v>84035</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="G56" s="4">
         <v>3.9E-2</v>
@@ -4219,31 +4199,31 @@
         <v>1</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O56" s="4"/>
       <c r="P56" s="8"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="5">
         <v>17</v>
       </c>
@@ -4251,16 +4231,16 @@
         <v>45007748</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G57" s="4">
         <v>3.4000000000000002E-2</v>
@@ -4269,31 +4249,31 @@
         <v>1</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L57" s="4">
         <v>0.76300000000000001</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O57" s="4"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="5">
         <v>19</v>
       </c>
@@ -4301,16 +4281,16 @@
         <v>45429708</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G58" s="4">
         <v>4.8000000000000001E-2</v>
@@ -4319,31 +4299,31 @@
         <v>1</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L58" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O58" s="4"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="5">
         <v>19</v>
       </c>
@@ -4351,16 +4331,16 @@
         <v>54931983</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G59" s="4">
         <v>0.13700000000000001</v>
@@ -4369,31 +4349,31 @@
         <v>1</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L59" s="4">
         <v>0.217</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O59" s="4"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="5">
         <v>19</v>
       </c>
@@ -4401,16 +4381,16 @@
         <v>55224185</v>
       </c>
       <c r="C60" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="G60" s="4">
         <v>7.2999999999999995E-2</v>
@@ -4419,31 +4399,31 @@
         <v>1</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O60" s="4"/>
       <c r="P60" s="8"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="5">
         <v>19</v>
       </c>
@@ -4451,16 +4431,16 @@
         <v>55557609</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G61" s="4">
         <v>3.0000000000000001E-3</v>
@@ -4469,31 +4449,31 @@
         <v>1</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O61" s="4"/>
       <c r="P61" s="8"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="5">
         <v>19</v>
       </c>
@@ -4501,16 +4481,16 @@
         <v>55567044</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G62" s="4">
         <v>8.4000000000000005E-2</v>
@@ -4519,19 +4499,19 @@
         <v>1</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L62" s="3">
         <v>0.71799999999999997</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N62" s="3">
         <v>3.0000000000000001E-3</v>
@@ -4540,10 +4520,10 @@
       <c r="P62" s="8"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="5">
         <v>22</v>
       </c>
@@ -4551,16 +4531,16 @@
         <v>44250669</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G63" s="4">
         <v>2E-3</v>
@@ -4569,31 +4549,31 @@
         <v>1</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="5">
         <v>11</v>
       </c>
@@ -4601,16 +4581,16 @@
         <v>1219152</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E64" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="G64" s="4">
         <v>4.3999999999999997E-2</v>
@@ -4619,31 +4599,31 @@
         <v>2</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="5">
         <v>11</v>
       </c>
@@ -4651,16 +4631,16 @@
         <v>1219153</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G65" s="4">
         <v>4.3999999999999997E-2</v>
@@ -4669,31 +4649,31 @@
         <v>2</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="5">
         <v>11</v>
       </c>
@@ -4701,16 +4681,16 @@
         <v>1236164</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G66" s="4">
         <v>0.183</v>
@@ -4719,31 +4699,31 @@
         <v>2</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="5">
         <v>11</v>
       </c>
@@ -4757,10 +4737,10 @@
         <v>0</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G67" s="4">
         <v>0.108</v>
@@ -4769,31 +4749,31 @@
         <v>2</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="5">
         <v>11</v>
       </c>
@@ -4801,16 +4781,16 @@
         <v>1362953</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G68" s="4">
         <v>0.3</v>
@@ -4819,31 +4799,31 @@
         <v>2</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="5">
         <v>17</v>
       </c>
@@ -4851,16 +4831,16 @@
         <v>43682323</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G69" s="4">
         <v>0.24199999999999999</v>
@@ -4869,31 +4849,31 @@
         <v>2</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="5">
         <v>17</v>
       </c>
@@ -4901,16 +4881,16 @@
         <v>43691173</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E70" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="G70" s="4">
         <v>0.23899999999999999</v>
@@ -4919,31 +4899,31 @@
         <v>2</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="5">
         <v>17</v>
       </c>
@@ -4951,16 +4931,16 @@
         <v>44183317</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G71" s="4">
         <v>0.24399999999999999</v>
@@ -4969,31 +4949,31 @@
         <v>2</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="5">
         <v>17</v>
       </c>
@@ -5001,16 +4981,16 @@
         <v>44301840</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G72" s="4">
         <v>0.248</v>
@@ -5019,31 +4999,31 @@
         <v>2</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="5">
         <v>17</v>
       </c>
@@ -5051,16 +5031,16 @@
         <v>44325635</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D73" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="G73" s="4">
         <v>0.249</v>
@@ -5069,28 +5049,28 @@
         <v>2</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -5101,88 +5081,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FEFD34-9B5D-4979-ADC2-B24EDB5564BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" thickBot="1">
       <c r="A2" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="23.25" thickBot="1">
       <c r="A3" s="12" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" thickBot="1">
       <c r="A4" s="13" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" thickBot="1">
       <c r="A5" s="11" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1">
       <c r="A6" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" thickBot="1">
       <c r="A7" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" thickBot="1">
       <c r="A8" s="14" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" thickBot="1">
       <c r="A10" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" thickBot="1">
       <c r="A11" s="13" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="11" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="11" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
